--- a/data/financial_statements/sofp/TMUS.xlsx
+++ b/data/financial_statements/sofp/TMUS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,129 +610,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>6888000000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>9372000000</v>
+        <v>9594000000</v>
       </c>
       <c r="C3">
-        <v>9595000000</v>
+        <v>9822000000</v>
       </c>
       <c r="D3">
-        <v>9077000000</v>
+        <v>9287000000</v>
       </c>
       <c r="E3">
-        <v>8942000000</v>
+        <v>9228000000</v>
       </c>
       <c r="F3">
-        <v>8436000000</v>
+        <v>8698000000</v>
       </c>
       <c r="G3">
         <v>8610000000</v>
@@ -864,8 +975,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2247000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>2209000000</v>
+        <v>2698000000</v>
       </c>
       <c r="C5">
-        <v>1711000000</v>
+        <v>2260000000</v>
       </c>
       <c r="D5">
-        <v>1691000000</v>
+        <v>2208000000</v>
       </c>
       <c r="E5">
-        <v>2005000000</v>
+        <v>2465000000</v>
       </c>
       <c r="F5">
-        <v>1576000000</v>
+        <v>2257000000</v>
       </c>
       <c r="G5">
         <v>1642000000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>21427000000</v>
@@ -1230,23 +1341,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>41034000000</v>
+        <v>73917000000</v>
       </c>
       <c r="C7">
-        <v>40245000000</v>
+        <v>73943000000</v>
       </c>
       <c r="D7">
-        <v>40006000000</v>
+        <v>74742000000</v>
       </c>
       <c r="E7">
-        <v>39803000000</v>
+        <v>70084000000</v>
       </c>
       <c r="F7">
-        <v>39355000000</v>
+        <v>70197000000</v>
       </c>
       <c r="G7">
         <v>39752000000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="AL8">
         <v>91000000</v>
@@ -1366,8 +1477,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2514000000</v>
@@ -1470,23 +1581,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>15997000000</v>
+        <v>111764000000</v>
       </c>
       <c r="C10">
-        <v>16374000000</v>
+        <v>112006000000</v>
       </c>
       <c r="D10">
-        <v>16682000000</v>
+        <v>109343000000</v>
       </c>
       <c r="E10">
-        <v>16921000000</v>
+        <v>109527000000</v>
       </c>
       <c r="F10">
-        <v>17235000000</v>
+        <v>109824000000</v>
       </c>
       <c r="G10">
         <v>15752000000</v>
@@ -1592,23 +1703,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>99644000000</v>
+        <v>3877000000</v>
       </c>
       <c r="C11">
-        <v>99065000000</v>
+        <v>3433000000</v>
       </c>
       <c r="D11">
-        <v>98937000000</v>
+        <v>6276000000</v>
       </c>
       <c r="E11">
-        <v>95838000000</v>
+        <v>3232000000</v>
       </c>
       <c r="F11">
-        <v>95641000000</v>
+        <v>3052000000</v>
       </c>
       <c r="G11">
         <v>95183000000</v>
@@ -1714,8 +1825,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>192072000000</v>
@@ -1836,8 +1947,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>213499000000</v>
@@ -1849,7 +1960,7 @@
         <v>210653000000</v>
       </c>
       <c r="E13">
-        <v>206563000000</v>
+        <v>222831000000</v>
       </c>
       <c r="F13">
         <v>202125000000</v>
@@ -1958,8 +2069,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>7398000000</v>
@@ -2077,20 +2188,20 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>11971000000</v>
+        <v>6822000000</v>
       </c>
       <c r="C15">
-        <v>11182000000</v>
+        <v>6292000000</v>
       </c>
       <c r="D15">
-        <v>11134000000</v>
+        <v>6739000000</v>
       </c>
       <c r="E15">
-        <v>11405000000</v>
+        <v>6499000000</v>
       </c>
       <c r="F15">
         <v>8735000000</v>
@@ -2199,8 +2310,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>12004000000</v>
@@ -2252,8 +2363,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1239000000</v>
@@ -2302,8 +2413,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>777000000</v>
@@ -2424,23 +2535,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1610000000</v>
+        <v>7536000000</v>
       </c>
       <c r="C19">
-        <v>1120000000</v>
+        <v>6820000000</v>
       </c>
       <c r="D19">
-        <v>959000000</v>
+        <v>6196000000</v>
       </c>
       <c r="E19">
-        <v>1070000000</v>
+        <v>6832000000</v>
       </c>
       <c r="F19">
-        <v>939000000</v>
+        <v>1945000000</v>
       </c>
       <c r="G19">
         <v>877000000</v>
@@ -2546,8 +2657,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>26362000000</v>
@@ -2668,23 +2779,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>71889000000</v>
+        <v>102160000000</v>
       </c>
       <c r="C21">
-        <v>73650000000</v>
+        <v>104566000000</v>
       </c>
       <c r="D21">
-        <v>73839000000</v>
+        <v>105026000000</v>
       </c>
       <c r="E21">
-        <v>72831000000</v>
+        <v>98649000000</v>
       </c>
       <c r="F21">
-        <v>72588000000</v>
+        <v>98867000000</v>
       </c>
       <c r="G21">
         <v>72682000000</v>
@@ -2790,8 +2901,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="Q22">
         <v>2781000000</v>
@@ -2867,8 +2978,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>10397000000</v>
@@ -2989,8 +3100,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>4430000000</v>
@@ -3111,8 +3222,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>116987000000</v>
@@ -3233,8 +3344,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>143349000000</v>
@@ -3246,7 +3357,7 @@
         <v>140677000000</v>
       </c>
       <c r="E26">
-        <v>137461000000</v>
+        <v>153729000000</v>
       </c>
       <c r="F26">
         <v>133698000000</v>
@@ -3355,8 +3466,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>73797000000</v>
@@ -3477,8 +3588,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E28">
         <v>73292000000</v>
@@ -3488,8 +3599,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>-1699000000</v>
@@ -3610,8 +3721,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>685000000</v>
@@ -3699,8 +3810,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>70150000000</v>
@@ -3821,8 +3932,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>70150000000</v>
@@ -3943,8 +4054,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>213499000000</v>
@@ -4065,8 +4176,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1250104000</v>
@@ -4187,8 +4298,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="V35">
         <v>20000000</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>54153000000</v>
@@ -4350,23 +4461,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>77005000000</v>
+        <v>107276000000</v>
       </c>
       <c r="C37">
-        <v>78009000000</v>
+        <v>108925000000</v>
       </c>
       <c r="D37">
-        <v>79082000000</v>
+        <v>110269000000</v>
       </c>
       <c r="E37">
-        <v>76368000000</v>
+        <v>102186000000</v>
       </c>
       <c r="F37">
-        <v>77100000000</v>
+        <v>103379000000</v>
       </c>
       <c r="G37">
         <v>76394000000</v>
@@ -4472,23 +4583,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>83893000000</v>
+        <v>114164000000</v>
       </c>
       <c r="C38">
-        <v>81160000000</v>
+        <v>112076000000</v>
       </c>
       <c r="D38">
-        <v>82327000000</v>
+        <v>113514000000</v>
       </c>
       <c r="E38">
-        <v>82999000000</v>
+        <v>108817000000</v>
       </c>
       <c r="F38">
-        <v>81155000000</v>
+        <v>107434000000</v>
       </c>
       <c r="G38">
         <v>84187000000</v>
